--- a/output2/【河洛話注音】金剛般若波羅蜜經。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F579B43E-0D86-4AFA-AF41-10FB618D5743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8864A16C-1EAE-4852-9856-B563574F5165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="615" windowWidth="36150" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="185">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1091,24 +1091,6 @@
     <t>IMAGE_URL</t>
   </si>
   <si>
-    <t>，</t>
-  </si>
-  <si>
-    <t>《</t>
-  </si>
-  <si>
-    <t>》</t>
-  </si>
-  <si>
-    <t>城</t>
-  </si>
-  <si>
-    <t>孤</t>
-  </si>
-  <si>
-    <t>處</t>
-  </si>
-  <si>
     <t>《金剛般若波羅蜜經》
 法會因由分第一
 如是我聞：一時，佛在舍衛國祈樹給孤獨園，與大比丘眾千二百五十人俱。爾時，世尊食時，著衣持缽，入舍衛大城乞食。於其城中次第乞已，還至本處。飯食訖，收衣缽。洗足已，敷座而坐。</t>
@@ -1119,288 +1101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>剛</t>
-  </si>
-  <si>
-    <t>般</t>
-  </si>
-  <si>
-    <t>若</t>
-  </si>
-  <si>
-    <t>波</t>
-  </si>
-  <si>
-    <t>羅</t>
-  </si>
-  <si>
-    <t>蜜</t>
-  </si>
-  <si>
-    <t>經</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>會</t>
-  </si>
-  <si>
-    <t>因</t>
-  </si>
-  <si>
-    <t>由</t>
-  </si>
-  <si>
-    <t>分</t>
-  </si>
-  <si>
-    <t>第</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>如</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>聞</t>
-  </si>
-  <si>
-    <t>：</t>
-  </si>
-  <si>
-    <t>時</t>
-  </si>
-  <si>
-    <t>佛</t>
-  </si>
-  <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>舍</t>
-  </si>
-  <si>
-    <t>衛</t>
-  </si>
-  <si>
-    <t>國</t>
-  </si>
-  <si>
-    <t>祈</t>
-  </si>
-  <si>
-    <t>樹</t>
-  </si>
-  <si>
-    <t>給</t>
-  </si>
-  <si>
-    <t>獨</t>
-  </si>
-  <si>
-    <t>園</t>
-  </si>
-  <si>
-    <t>與</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>比</t>
-  </si>
-  <si>
-    <t>丘</t>
-  </si>
-  <si>
-    <t>眾</t>
-  </si>
-  <si>
-    <t>千</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>百</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>十</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>俱</t>
-  </si>
-  <si>
-    <t>。</t>
-  </si>
-  <si>
-    <t>爾</t>
-  </si>
-  <si>
-    <t>世</t>
-  </si>
-  <si>
-    <t>尊</t>
-  </si>
-  <si>
-    <t>食</t>
-  </si>
-  <si>
-    <t>著</t>
-  </si>
-  <si>
-    <t>衣</t>
-  </si>
-  <si>
-    <t>持</t>
-  </si>
-  <si>
-    <t>缽</t>
-  </si>
-  <si>
-    <t>入</t>
-  </si>
-  <si>
-    <t>乞</t>
-  </si>
-  <si>
-    <t>於</t>
-  </si>
-  <si>
-    <t>其</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>已</t>
-  </si>
-  <si>
-    <t>還</t>
-  </si>
-  <si>
-    <t>至</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>飯</t>
-  </si>
-  <si>
-    <t>訖</t>
-  </si>
-  <si>
-    <t>收</t>
-  </si>
-  <si>
-    <t>洗</t>
-  </si>
-  <si>
-    <t>足</t>
-  </si>
-  <si>
-    <t>敷</t>
-  </si>
-  <si>
-    <t>座</t>
-  </si>
-  <si>
-    <t>而</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>ㄍㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>ㄍㆲˉ</t>
-  </si>
-  <si>
-    <t>ㄆㄜˉ</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>ㆠㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥˉ</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>ㄗㄞ˫</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>ㄍㆦˉ</t>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>ㄎㄧㆵ</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>ㄘㄨ˪</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˊ</t>
-  </si>
-  <si>
-    <t>ㄅㄨㄣˋ</t>
-  </si>
-  <si>
-    <t>ㆣㄧㆵ</t>
-  </si>
-  <si>
-    <t>ㄏㄨˉ</t>
-  </si>
-  <si>
-    <t>ㄗㄜ˫</t>
-  </si>
-  <si>
     <t>ㄚˋ</t>
   </si>
   <si>
@@ -1448,330 +1148,6 @@
   <si>
     <t>每列總字數</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kim1</t>
-  </si>
-  <si>
-    <t>kong1</t>
-  </si>
-  <si>
-    <t>puan1</t>
-  </si>
-  <si>
-    <t>ㄅㄨㄢˉ</t>
-  </si>
-  <si>
-    <t>jiak8</t>
-  </si>
-  <si>
-    <t>ㆡㄧㄚㆻ˙</t>
-  </si>
-  <si>
-    <t>pho1</t>
-  </si>
-  <si>
-    <t>lo5</t>
-  </si>
-  <si>
-    <t>bit8</t>
-  </si>
-  <si>
-    <t>king1</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>kue3</t>
-  </si>
-  <si>
-    <t>ㄍㄨㆤ˪</t>
-  </si>
-  <si>
-    <t>qin1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧㄣˉ</t>
-  </si>
-  <si>
-    <t>qiu5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧㄨˊ</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>tei7</t>
-  </si>
-  <si>
-    <t>qit4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧㆵ</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆡㄧˊ</t>
-  </si>
-  <si>
-    <t>si7</t>
-  </si>
-  <si>
-    <t>ㄙㄧ˫</t>
-  </si>
-  <si>
-    <t>ngonn2</t>
-  </si>
-  <si>
-    <t>ㄫㆧˋ</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>si5</t>
-  </si>
-  <si>
-    <t>ㄙㄧˊ</t>
-  </si>
-  <si>
-    <t>hut8</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>zai7</t>
-  </si>
-  <si>
-    <t>sia2</t>
-  </si>
-  <si>
-    <t>ㄙㄧㄚˋ</t>
-  </si>
-  <si>
-    <t>que7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄨㆤ˫</t>
-  </si>
-  <si>
-    <t>kok4</t>
-  </si>
-  <si>
-    <t>ㄍㆦㆻ</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>kip4</t>
-  </si>
-  <si>
-    <t>ㄍ一ㆴ</t>
-  </si>
-  <si>
-    <t>koo1</t>
-  </si>
-  <si>
-    <t>tok8</t>
-  </si>
-  <si>
-    <t>ㄉㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>quan5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄨㄢˊ</t>
-  </si>
-  <si>
-    <t>qi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧˋ</t>
-  </si>
-  <si>
-    <t>thai3</t>
-  </si>
-  <si>
-    <t>ㄊㄞ˪</t>
-  </si>
-  <si>
-    <t>pi2</t>
-  </si>
-  <si>
-    <t>khiu1</t>
-  </si>
-  <si>
-    <t>ㄎㄧㄨˉ</t>
-  </si>
-  <si>
-    <t>cian1</t>
-  </si>
-  <si>
-    <t>ㄘㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>ji7</t>
-  </si>
-  <si>
-    <t>ㆡㄧ˫</t>
-  </si>
-  <si>
-    <t>pik4</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ</t>
-  </si>
-  <si>
-    <t>ngoonn2</t>
-  </si>
-  <si>
-    <t>sip8</t>
-  </si>
-  <si>
-    <t>ㄙ一ㆴ˙</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆡㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>ki1</t>
-  </si>
-  <si>
-    <t>ㄍㄧˉ</t>
-  </si>
-  <si>
-    <t>ji2</t>
-  </si>
-  <si>
-    <t>ㆡㄧˋ</t>
-  </si>
-  <si>
-    <t>si3</t>
-  </si>
-  <si>
-    <t>ㄙㄧ˪</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>sit8</t>
-  </si>
-  <si>
-    <t>ㄙㄧㆵ˙</t>
-  </si>
-  <si>
-    <t>ziak8</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆻ˙</t>
-  </si>
-  <si>
-    <t>qi1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㄧˉ</t>
-  </si>
-  <si>
-    <t>ti5</t>
-  </si>
-  <si>
-    <t>ㄉㄧˊ</t>
-  </si>
-  <si>
-    <t>jip8</t>
-  </si>
-  <si>
-    <t>ㆡ一ㆴ˙</t>
-  </si>
-  <si>
-    <t>sing5</t>
-  </si>
-  <si>
-    <t>ㄙㄧㄥˊ</t>
-  </si>
-  <si>
-    <t>khit4</t>
-  </si>
-  <si>
-    <t>qoo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ㆦˉ</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>cu3</t>
-  </si>
-  <si>
-    <t>ziat4</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆵ</t>
-  </si>
-  <si>
-    <t>huan5</t>
-  </si>
-  <si>
-    <t>zi3</t>
-  </si>
-  <si>
-    <t>ㄗㄧ˪</t>
-  </si>
-  <si>
-    <t>pun2</t>
-  </si>
-  <si>
-    <t>ci2</t>
-  </si>
-  <si>
-    <t>ㄘㄧˋ</t>
-  </si>
-  <si>
-    <t>huan2</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄢˋ</t>
-  </si>
-  <si>
-    <t>git4</t>
-  </si>
-  <si>
-    <t>siu1</t>
-  </si>
-  <si>
-    <t>ㄙㄧㄨˉ</t>
-  </si>
-  <si>
-    <t>sian2</t>
-  </si>
-  <si>
-    <t>ㄙㄧㄢˋ</t>
-  </si>
-  <si>
-    <t>ziok4</t>
-  </si>
-  <si>
-    <t>ㄗㄧㆦㆻ</t>
-  </si>
-  <si>
-    <t>hu1</t>
-  </si>
-  <si>
-    <t>zo7</t>
   </si>
 </sst>
 </file>
@@ -3731,7 +3107,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3739,15 +3115,15 @@
         <v>167</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="108" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3760,7 +3136,7 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="108" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="C9" s="110">
         <v>40</v>
@@ -3768,7 +3144,7 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="111" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="C10" s="110">
         <v>15</v>
@@ -3792,7 +3168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -3897,36 +3273,20 @@
       <c r="S3" s="82"/>
       <c r="T3" s="78"/>
       <c r="V3" s="112" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="69"/>
       <c r="D4" s="102"/>
-      <c r="E4" s="102" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="102" t="s">
-        <v>289</v>
-      </c>
-      <c r="I4" s="102" t="s">
-        <v>291</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>292</v>
-      </c>
-      <c r="K4" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="L4" s="102" t="s">
-        <v>294</v>
-      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
       <c r="O4" s="102"/>
@@ -3940,36 +3300,16 @@
       <c r="B5" s="70">
         <v>1</v>
       </c>
-      <c r="D5" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>170</v>
-      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
       <c r="P5" s="79"/>
@@ -3982,30 +3322,14 @@
       <c r="B6" s="71"/>
       <c r="C6" s="52"/>
       <c r="D6" s="103"/>
-      <c r="E6" s="103" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="K6" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="L6" s="103" t="s">
-        <v>252</v>
-      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="103"/>
       <c r="N6" s="103"/>
       <c r="O6" s="103"/>
@@ -4039,27 +3363,13 @@
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="69"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="102" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="102" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="102" t="s">
-        <v>304</v>
-      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="102"/>
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
@@ -4077,27 +3387,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="F9" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>190</v>
-      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
@@ -4113,27 +3409,13 @@
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="71"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="103" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="103" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>305</v>
-      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
       <c r="M10" s="103"/>
@@ -4169,47 +3451,21 @@
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="69"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="E12" s="102" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="G12" s="102" t="s">
-        <v>312</v>
-      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
       <c r="H12" s="102"/>
-      <c r="I12" s="102" t="s">
-        <v>304</v>
-      </c>
-      <c r="J12" s="102" t="s">
-        <v>313</v>
-      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
       <c r="K12" s="102"/>
-      <c r="L12" s="102" t="s">
-        <v>315</v>
-      </c>
-      <c r="M12" s="102" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="O12" s="102" t="s">
-        <v>320</v>
-      </c>
-      <c r="P12" s="102" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q12" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="R12" s="102" t="s">
-        <v>308</v>
-      </c>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
       <c r="S12" s="56"/>
       <c r="V12" s="113"/>
     </row>
@@ -4219,98 +3475,42 @@
         <v>3</v>
       </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="K13" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="L13" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="M13" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="P13" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q13" s="79" t="s">
-        <v>202</v>
-      </c>
-      <c r="R13" s="79" t="s">
-        <v>203</v>
-      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
       <c r="S13" s="57"/>
       <c r="V13" s="114"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="E14" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>256</v>
-      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
       <c r="H14" s="103"/>
-      <c r="I14" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="J14" s="103" t="s">
-        <v>314</v>
-      </c>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="103"/>
-      <c r="L14" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="N14" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="O14" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="P14" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q14" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="R14" s="103" t="s">
-        <v>309</v>
-      </c>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
     </row>
@@ -4338,47 +3538,21 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="69"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="102" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="102" t="s">
-        <v>328</v>
-      </c>
-      <c r="G16" s="102" t="s">
-        <v>330</v>
-      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
       <c r="H16" s="102"/>
-      <c r="I16" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="J16" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" s="102" t="s">
-        <v>336</v>
-      </c>
-      <c r="L16" s="102" t="s">
-        <v>337</v>
-      </c>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="102" t="s">
-        <v>339</v>
-      </c>
-      <c r="O16" s="102" t="s">
-        <v>341</v>
-      </c>
-      <c r="P16" s="102" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q16" s="102" t="s">
-        <v>345</v>
-      </c>
-      <c r="R16" s="102" t="s">
-        <v>346</v>
-      </c>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
     </row>
@@ -4388,98 +3562,42 @@
         <v>4</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" s="79" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="M17" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="N17" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="O17" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="P17" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q17" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="R17" s="79" t="s">
-        <v>216</v>
-      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="57"/>
       <c r="V17" s="75"/>
     </row>
     <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="71"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="103" t="s">
-        <v>326</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="103" t="s">
-        <v>331</v>
-      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="H18" s="103"/>
-      <c r="I18" s="103" t="s">
-        <v>333</v>
-      </c>
-      <c r="J18" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="K18" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="L18" s="103" t="s">
-        <v>338</v>
-      </c>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
       <c r="M18" s="103"/>
-      <c r="N18" s="103" t="s">
-        <v>340</v>
-      </c>
-      <c r="O18" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="P18" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q18" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="R18" s="103" t="s">
-        <v>347</v>
-      </c>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
     </row>
@@ -4507,42 +3625,20 @@
     <row r="20" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="69"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="102" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>350</v>
-      </c>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="102"/>
-      <c r="G20" s="102" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>313</v>
-      </c>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
       <c r="I20" s="102"/>
-      <c r="J20" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>356</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="M20" s="102" t="s">
-        <v>313</v>
-      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="102"/>
-      <c r="O20" s="102" t="s">
-        <v>359</v>
-      </c>
-      <c r="P20" s="102" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q20" s="102" t="s">
-        <v>363</v>
-      </c>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
       <c r="R20" s="102"/>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
@@ -4553,93 +3649,41 @@
         <v>5</v>
       </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="N21" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="P21" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q21" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="R21" s="79" t="s">
-        <v>227</v>
-      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="57"/>
       <c r="V21" s="75"/>
     </row>
     <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="71"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="103" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>351</v>
-      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="103"/>
-      <c r="G22" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="H22" s="103" t="s">
-        <v>314</v>
-      </c>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
       <c r="I22" s="103"/>
-      <c r="J22" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="K22" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="L22" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="M22" s="103" t="s">
-        <v>314</v>
-      </c>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
       <c r="N22" s="103"/>
-      <c r="O22" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="P22" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q22" s="103" t="s">
-        <v>364</v>
-      </c>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="103"/>
       <c r="R22" s="103"/>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
@@ -4669,46 +3713,20 @@
       <c r="B24" s="69"/>
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
-      <c r="E24" s="102" t="s">
-        <v>365</v>
-      </c>
-      <c r="F24" s="102" t="s">
-        <v>318</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>320</v>
-      </c>
-      <c r="H24" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="I24" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="J24" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="K24" s="102" t="s">
-        <v>357</v>
-      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
       <c r="L24" s="102"/>
-      <c r="M24" s="102" t="s">
-        <v>370</v>
-      </c>
-      <c r="N24" s="102" t="s">
-        <v>324</v>
-      </c>
-      <c r="O24" s="102" t="s">
-        <v>367</v>
-      </c>
-      <c r="P24" s="102" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q24" s="102" t="s">
-        <v>373</v>
-      </c>
-      <c r="R24" s="102" t="s">
-        <v>303</v>
-      </c>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
       <c r="S24" s="56"/>
       <c r="V24" s="75"/>
     </row>
@@ -4718,51 +3736,21 @@
         <v>6</v>
       </c>
       <c r="C25" s="54"/>
-      <c r="D25" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="I25" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="N25" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="O25" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="P25" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="R25" s="79" t="s">
-        <v>189</v>
-      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
       <c r="S25" s="57"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
@@ -4772,46 +3760,20 @@
       <c r="B26" s="71"/>
       <c r="C26" s="54"/>
       <c r="D26" s="103"/>
-      <c r="E26" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="F26" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="I26" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="J26" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="K26" s="103" t="s">
-        <v>358</v>
-      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
       <c r="L26" s="103"/>
-      <c r="M26" s="103" t="s">
-        <v>371</v>
-      </c>
-      <c r="N26" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="O26" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="P26" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q26" s="103" t="s">
-        <v>264</v>
-      </c>
-      <c r="R26" s="103" t="s">
-        <v>255</v>
-      </c>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
     </row>
@@ -4841,42 +3803,20 @@
     <row r="28" spans="1:22" ht="36" customHeight="1">
       <c r="B28" s="69"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="E28" s="102" t="s">
-        <v>374</v>
-      </c>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
       <c r="F28" s="102"/>
-      <c r="G28" s="102" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>377</v>
-      </c>
-      <c r="I28" s="102" t="s">
-        <v>379</v>
-      </c>
-      <c r="J28" s="102" t="s">
-        <v>380</v>
-      </c>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="102"/>
-      <c r="L28" s="102" t="s">
-        <v>382</v>
-      </c>
-      <c r="M28" s="102" t="s">
-        <v>357</v>
-      </c>
-      <c r="N28" s="102" t="s">
-        <v>384</v>
-      </c>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
       <c r="O28" s="102"/>
-      <c r="P28" s="102" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q28" s="102" t="s">
-        <v>361</v>
-      </c>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
       <c r="R28" s="102"/>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
@@ -4887,51 +3827,21 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="H29" s="79" t="s">
-        <v>236</v>
-      </c>
-      <c r="I29" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>238</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="N29" s="79" t="s">
-        <v>239</v>
-      </c>
-      <c r="O29" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="P29" s="79" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="R29" s="79" t="s">
-        <v>227</v>
-      </c>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
       <c r="S29" s="57"/>
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
@@ -4940,42 +3850,20 @@
     <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>375</v>
-      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="103"/>
-      <c r="G30" s="103" t="s">
-        <v>265</v>
-      </c>
-      <c r="H30" s="103" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" s="103" t="s">
-        <v>266</v>
-      </c>
-      <c r="J30" s="103" t="s">
-        <v>381</v>
-      </c>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="103"/>
-      <c r="L30" s="103" t="s">
-        <v>383</v>
-      </c>
-      <c r="M30" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="N30" s="103" t="s">
-        <v>267</v>
-      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
       <c r="O30" s="103"/>
-      <c r="P30" s="103" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q30" s="103" t="s">
-        <v>362</v>
-      </c>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
       <c r="R30" s="103"/>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
@@ -5008,28 +3896,14 @@
       <c r="B32" s="69"/>
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
-      <c r="E32" s="102" t="s">
-        <v>387</v>
-      </c>
-      <c r="F32" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" s="102" t="s">
-        <v>374</v>
-      </c>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
       <c r="H32" s="102"/>
-      <c r="I32" s="102" t="s">
-        <v>391</v>
-      </c>
-      <c r="J32" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="K32" s="102" t="s">
-        <v>306</v>
-      </c>
-      <c r="L32" s="102" t="s">
-        <v>392</v>
-      </c>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="102"/>
@@ -5045,36 +3919,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="79" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="J33" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="K33" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>246</v>
-      </c>
-      <c r="M33" s="79" t="s">
-        <v>219</v>
-      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
       <c r="N33" s="79"/>
       <c r="O33" s="79"/>
       <c r="P33" s="79"/>
@@ -5087,28 +3941,14 @@
       <c r="B34" s="73"/>
       <c r="C34" s="1"/>
       <c r="D34" s="103"/>
-      <c r="E34" s="103" t="s">
-        <v>388</v>
-      </c>
-      <c r="F34" s="103" t="s">
-        <v>390</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>375</v>
-      </c>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="103"/>
-      <c r="I34" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="J34" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="K34" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="L34" s="103" t="s">
-        <v>269</v>
-      </c>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
       <c r="M34" s="103"/>
       <c r="N34" s="103"/>
       <c r="O34" s="103"/>
@@ -6118,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="105" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
@@ -6130,7 +4970,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="105" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -6142,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="105" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -6154,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
@@ -6166,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="106" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
@@ -6175,10 +5015,10 @@
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="37"/>
       <c r="J24" s="104" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="K24" s="107" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -6190,7 +5030,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="105" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
@@ -6202,7 +5042,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="105" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -6354,13 +5194,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>83</v>
@@ -6424,13 +5264,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>94</v>
@@ -6491,13 +5331,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>105</v>
@@ -6558,13 +5398,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="G16" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>116</v>
@@ -6625,13 +5465,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="G20" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>128</v>

--- a/output2/【河洛話注音】金剛般若波羅蜜經。法會因由分第一.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經。法會因由分第一.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8864A16C-1EAE-4852-9856-B563574F5165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E55283-C257-4188-BF8A-6A86860179D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-26940" yWindow="855" windowWidth="26430" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="404">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,12 +1149,812 @@
     <t>每列總字數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>《</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>剛</t>
+  </si>
+  <si>
+    <t>般</t>
+  </si>
+  <si>
+    <t>若</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>羅</t>
+  </si>
+  <si>
+    <t>蜜</t>
+  </si>
+  <si>
+    <t>經</t>
+  </si>
+  <si>
+    <t>》</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>會</t>
+  </si>
+  <si>
+    <t>因</t>
+  </si>
+  <si>
+    <t>由</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>第</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>聞</t>
+  </si>
+  <si>
+    <t>：</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>佛</t>
+  </si>
+  <si>
+    <t>在</t>
+  </si>
+  <si>
+    <t>舍</t>
+  </si>
+  <si>
+    <t>衛</t>
+  </si>
+  <si>
+    <t>國</t>
+  </si>
+  <si>
+    <t>祈</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>給</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>獨</t>
+  </si>
+  <si>
+    <t>園</t>
+  </si>
+  <si>
+    <t>與</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
+  <si>
+    <t>丘</t>
+  </si>
+  <si>
+    <t>眾</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>俱</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
+    <t>爾</t>
+  </si>
+  <si>
+    <t>世</t>
+  </si>
+  <si>
+    <t>尊</t>
+  </si>
+  <si>
+    <t>食</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>衣</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>缽</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>城</t>
+  </si>
+  <si>
+    <t>乞</t>
+  </si>
+  <si>
+    <t>於</t>
+  </si>
+  <si>
+    <t>其</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>還</t>
+  </si>
+  <si>
+    <t>至</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>處</t>
+  </si>
+  <si>
+    <t>飯</t>
+  </si>
+  <si>
+    <t>訖</t>
+  </si>
+  <si>
+    <t>收</t>
+  </si>
+  <si>
+    <t>洗</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>敷</t>
+  </si>
+  <si>
+    <t>座</t>
+  </si>
+  <si>
+    <t>而</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>〔jin⁵〕
+【ㆢㄧㄣˊ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kip4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍ一ㆴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin⁵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ku1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆲ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔phoo¹〕
+【ㄆㆦˉ】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo¹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄎㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧㄥ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshainn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆮ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄧㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tio0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄜ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ti5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡ一ㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siann5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshur3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puinn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆪˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshir3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puinn7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄨㆪ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tso7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tser6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆦㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄧㄨ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiok4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77">
+  <fonts count="78">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1689,6 +2489,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="芫荽 0.94"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1891,7 +2698,7 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2221,6 +3028,9 @@
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -3169,7 +3979,7 @@
   <dimension ref="A2:V58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -3259,8 +4069,12 @@
       <c r="E3" s="85"/>
       <c r="F3" s="85"/>
       <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>304</v>
+      </c>
       <c r="J3" s="85"/>
       <c r="K3" s="85"/>
       <c r="L3" s="85"/>
@@ -3272,21 +4086,37 @@
       <c r="R3" s="85"/>
       <c r="S3" s="82"/>
       <c r="T3" s="78"/>
-      <c r="V3" s="112" t="s">
+      <c r="V3" s="113" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="69"/>
       <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
+      <c r="E4" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>402</v>
+      </c>
+      <c r="K4" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="L4" s="102" t="s">
+        <v>311</v>
+      </c>
       <c r="M4" s="102"/>
       <c r="N4" s="102"/>
       <c r="O4" s="102"/>
@@ -3294,50 +4124,86 @@
       <c r="Q4" s="102"/>
       <c r="R4" s="102"/>
       <c r="S4" s="56"/>
-      <c r="V4" s="113"/>
+      <c r="V4" s="114"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="70">
         <v>1</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
+      <c r="D5" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>194</v>
+      </c>
       <c r="N5" s="79"/>
       <c r="O5" s="79"/>
       <c r="P5" s="79"/>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
       <c r="S5" s="57"/>
-      <c r="V5" s="113"/>
+      <c r="V5" s="114"/>
     </row>
     <row r="6" spans="2:22" s="51" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="71"/>
       <c r="C6" s="52"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="112" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" s="112" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="112" t="s">
+        <v>312</v>
+      </c>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
       <c r="S6" s="58"/>
-      <c r="V6" s="113"/>
+      <c r="V6" s="114"/>
     </row>
     <row r="7" spans="2:22" s="50" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="68"/>
@@ -3358,18 +4224,32 @@
       <c r="Q7" s="81"/>
       <c r="R7" s="81"/>
       <c r="S7" s="61"/>
-      <c r="V7" s="113"/>
+      <c r="V7" s="114"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="69"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
+      <c r="D8" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="102" t="s">
+        <v>276</v>
+      </c>
       <c r="K8" s="102"/>
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
@@ -3379,7 +4259,7 @@
       <c r="Q8" s="102"/>
       <c r="R8" s="102"/>
       <c r="S8" s="56"/>
-      <c r="V8" s="113"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="70">
@@ -3387,13 +4267,27 @@
         <v>2</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+      <c r="D9" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>201</v>
+      </c>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
       <c r="M9" s="79"/>
@@ -3404,18 +4298,32 @@
       <c r="R9" s="79"/>
       <c r="S9" s="57"/>
       <c r="T9" s="78"/>
-      <c r="V9" s="113"/>
+      <c r="V9" s="114"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="71"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
+      <c r="D10" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="103" t="s">
+        <v>277</v>
+      </c>
       <c r="K10" s="103"/>
       <c r="L10" s="103"/>
       <c r="M10" s="103"/>
@@ -3425,7 +4333,7 @@
       <c r="Q10" s="103"/>
       <c r="R10" s="103"/>
       <c r="S10" s="62"/>
-      <c r="V10" s="113"/>
+      <c r="V10" s="114"/>
     </row>
     <row r="11" spans="2:22" s="92" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="89"/>
@@ -3446,28 +4354,52 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="61"/>
-      <c r="V11" s="113"/>
+      <c r="V11" s="114"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="69"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
+      <c r="D12" s="102" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>313</v>
+      </c>
       <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
+      <c r="I12" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="102" t="s">
+        <v>315</v>
+      </c>
       <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
+      <c r="L12" s="102" t="s">
+        <v>317</v>
+      </c>
+      <c r="M12" s="102" t="s">
+        <v>396</v>
+      </c>
       <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="O12" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q12" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="R12" s="102" t="s">
+        <v>400</v>
+      </c>
       <c r="S12" s="56"/>
-      <c r="V12" s="113"/>
+      <c r="V12" s="114"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="70">
@@ -3475,42 +4407,96 @@
         <v>3</v>
       </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
+      <c r="D13" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="N13" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="O13" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" s="79" t="s">
+        <v>215</v>
+      </c>
       <c r="S13" s="57"/>
-      <c r="V13" s="114"/>
+      <c r="V13" s="115"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="D14" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>314</v>
+      </c>
       <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
+      <c r="L14" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="M14" s="103" t="s">
+        <v>397</v>
+      </c>
       <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
+      <c r="O14" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="R14" s="103" t="s">
+        <v>401</v>
+      </c>
       <c r="S14" s="62"/>
       <c r="V14" s="75"/>
     </row>
@@ -3538,21 +4524,49 @@
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="69"/>
       <c r="C16" s="54"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
+      <c r="D16" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>290</v>
+      </c>
       <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
+      <c r="I16" s="102" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="M16" s="102" t="s">
+        <v>327</v>
+      </c>
+      <c r="N16" s="102" t="s">
+        <v>329</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="R16" s="102" t="s">
+        <v>337</v>
+      </c>
       <c r="S16" s="56"/>
       <c r="V16" s="75"/>
     </row>
@@ -3562,49 +4576,109 @@
         <v>4</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
+      <c r="D17" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="M17" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="N17" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="O17" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="P17" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q17" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>229</v>
+      </c>
       <c r="S17" s="57"/>
       <c r="V17" s="75"/>
     </row>
     <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="71"/>
       <c r="C18" s="54"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="103" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="103" t="s">
+        <v>291</v>
+      </c>
       <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
+      <c r="I18" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="M18" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" s="103" t="s">
+        <v>330</v>
+      </c>
+      <c r="O18" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="P18" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q18" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="R18" s="103" t="s">
+        <v>338</v>
+      </c>
       <c r="S18" s="62"/>
       <c r="V18" s="75"/>
     </row>
     <row r="19" spans="1:22" s="50" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="68"/>
       <c r="C19" s="59"/>
-      <c r="D19" s="87"/>
+      <c r="D19" s="87" t="s">
+        <v>262</v>
+      </c>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
@@ -3625,21 +4699,45 @@
     <row r="20" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="69"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>294</v>
+      </c>
       <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
+      <c r="G20" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>315</v>
+      </c>
       <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
+      <c r="J20" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="L20" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="M20" s="102" t="s">
+        <v>315</v>
+      </c>
       <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
+      <c r="O20" s="102" t="s">
+        <v>347</v>
+      </c>
+      <c r="P20" s="102" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q20" s="102" t="s">
+        <v>351</v>
+      </c>
+      <c r="R20" s="102" t="s">
+        <v>353</v>
+      </c>
       <c r="S20" s="56"/>
       <c r="V20" s="75"/>
     </row>
@@ -3649,42 +4747,96 @@
         <v>5</v>
       </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
+      <c r="D21" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="P21" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q21" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="R21" s="79" t="s">
+        <v>240</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="V21" s="75"/>
     </row>
     <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="71"/>
       <c r="C22" s="54"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
+      <c r="D22" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>295</v>
+      </c>
       <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
+      <c r="G22" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
+      <c r="J22" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="K22" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="L22" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="M22" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
+      <c r="O22" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="P22" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q22" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" s="103" t="s">
+        <v>354</v>
+      </c>
       <c r="S22" s="62"/>
       <c r="V22" s="75"/>
     </row>
@@ -3713,20 +4865,44 @@
       <c r="B24" s="69"/>
       <c r="C24" s="54"/>
       <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="E24" s="102" t="s">
+        <v>355</v>
+      </c>
       <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
+      <c r="G24" s="102" t="s">
+        <v>357</v>
+      </c>
+      <c r="H24" s="102" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="J24" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="102" t="s">
+        <v>345</v>
+      </c>
       <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
+      <c r="M24" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="N24" s="102" t="s">
+        <v>363</v>
+      </c>
+      <c r="O24" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="P24" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q24" s="102" t="s">
+        <v>367</v>
+      </c>
+      <c r="R24" s="102" t="s">
+        <v>274</v>
+      </c>
       <c r="S24" s="56"/>
       <c r="V24" s="75"/>
     </row>
@@ -3736,21 +4912,51 @@
         <v>6</v>
       </c>
       <c r="C25" s="54"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
+      <c r="D25" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="N25" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q25" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="R25" s="79" t="s">
+        <v>200</v>
+      </c>
       <c r="S25" s="57"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
@@ -3760,20 +4966,44 @@
       <c r="B26" s="71"/>
       <c r="C26" s="54"/>
       <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
+      <c r="E26" s="103" t="s">
+        <v>356</v>
+      </c>
       <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
+      <c r="G26" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="J26" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="103" t="s">
+        <v>346</v>
+      </c>
       <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
+      <c r="M26" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="N26" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="O26" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="P26" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q26" s="103" t="s">
+        <v>368</v>
+      </c>
+      <c r="R26" s="103" t="s">
+        <v>275</v>
+      </c>
       <c r="S26" s="62"/>
       <c r="V26" s="75"/>
     </row>
@@ -3803,21 +5033,45 @@
     <row r="28" spans="1:22" ht="36" customHeight="1">
       <c r="B28" s="69"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
+      <c r="D28" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="102" t="s">
+        <v>369</v>
+      </c>
       <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
+      <c r="G28" s="102" t="s">
+        <v>371</v>
+      </c>
+      <c r="H28" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="I28" s="102" t="s">
+        <v>375</v>
+      </c>
+      <c r="J28" s="102" t="s">
+        <v>377</v>
+      </c>
       <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
+      <c r="L28" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="M28" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="N28" s="102" t="s">
+        <v>380</v>
+      </c>
       <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
+      <c r="P28" s="102" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q28" s="102" t="s">
+        <v>349</v>
+      </c>
+      <c r="R28" s="102" t="s">
+        <v>353</v>
+      </c>
       <c r="S28" s="56"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -3827,21 +5081,51 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
+      <c r="D29" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="N29" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="R29" s="79" t="s">
+        <v>240</v>
+      </c>
       <c r="S29" s="57"/>
       <c r="T29" s="50"/>
       <c r="U29" s="50"/>
@@ -3850,21 +5134,45 @@
     <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="73"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="D30" s="103" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>370</v>
+      </c>
       <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
+      <c r="G30" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="I30" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" s="103" t="s">
+        <v>368</v>
+      </c>
       <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
+      <c r="L30" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="M30" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="N30" s="103" t="s">
+        <v>381</v>
+      </c>
       <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
+      <c r="P30" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q30" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="R30" s="103" t="s">
+        <v>354</v>
+      </c>
       <c r="S30" s="58"/>
       <c r="V30" s="75"/>
     </row>
@@ -3896,14 +5204,28 @@
       <c r="B32" s="69"/>
       <c r="C32" s="1"/>
       <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
+      <c r="E32" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>369</v>
+      </c>
       <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
+      <c r="I32" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="J32" s="102" t="s">
+        <v>390</v>
+      </c>
+      <c r="K32" s="102" t="s">
+        <v>392</v>
+      </c>
+      <c r="L32" s="102" t="s">
+        <v>394</v>
+      </c>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
       <c r="O32" s="102"/>
@@ -3919,16 +5241,36 @@
         <v>8</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
+      <c r="D33" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" s="79" t="s">
+        <v>232</v>
+      </c>
       <c r="N33" s="79"/>
       <c r="O33" s="79"/>
       <c r="P33" s="79"/>
@@ -3941,14 +5283,28 @@
       <c r="B34" s="73"/>
       <c r="C34" s="1"/>
       <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="E34" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>370</v>
+      </c>
       <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
+      <c r="I34" s="103" t="s">
+        <v>389</v>
+      </c>
+      <c r="J34" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="K34" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="L34" s="103" t="s">
+        <v>395</v>
+      </c>
       <c r="M34" s="103"/>
       <c r="N34" s="103"/>
       <c r="O34" s="103"/>
@@ -4483,7 +5839,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4501,7 +5857,7 @@
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="115" t="s">
+      <c r="I5" s="116" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7" t="s">
@@ -4526,7 +5882,7 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
@@ -4546,7 +5902,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="116"/>
+      <c r="I6" s="117"/>
       <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +5924,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="116"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4584,7 +5940,7 @@
       <c r="G7" s="17">
         <v>30</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
@@ -4606,7 +5962,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="116"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="12" t="s">
         <v>24</v>
       </c>
@@ -4622,7 +5978,7 @@
       <c r="G8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="116"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="19" t="s">
         <v>24</v>
       </c>
@@ -4644,7 +6000,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="116"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
@@ -4660,7 +6016,7 @@
       <c r="G9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="116"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
@@ -4682,7 +6038,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
@@ -4698,7 +6054,7 @@
       <c r="G10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="117"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
@@ -4721,7 +6077,7 @@
       <c r="R10" s="29"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -4739,7 +6095,7 @@
       <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="116" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="7" t="s">
@@ -4763,7 +6119,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="116"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +6139,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="116"/>
+      <c r="I12" s="117"/>
       <c r="J12" s="12" t="s">
         <v>17</v>
       </c>
@@ -4803,7 +6159,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="116"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
@@ -4817,7 +6173,7 @@
       <c r="G13" s="17">
         <v>50</v>
       </c>
-      <c r="I13" s="116"/>
+      <c r="I13" s="117"/>
       <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
@@ -4837,7 +6193,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="116"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
@@ -4851,7 +6207,7 @@
       <c r="G14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="116"/>
+      <c r="I14" s="117"/>
       <c r="J14" s="12" t="s">
         <v>24</v>
       </c>
@@ -4871,7 +6227,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="116"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -4885,7 +6241,7 @@
       <c r="G15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="116"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="12" t="s">
         <v>33</v>
       </c>
@@ -4905,7 +6261,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="117"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="12" t="s">
         <v>38</v>
       </c>
@@ -4919,7 +6275,7 @@
       <c r="G16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="117"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="12" t="s">
         <v>43</v>
       </c>
